--- a/medicine/Handicap/Éducation_conductive/Éducation_conductive.xlsx
+++ b/medicine/Handicap/Éducation_conductive/Éducation_conductive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ducation_conductive</t>
+          <t>Éducation_conductive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,24 +490,26 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éducation conductive (EC) (ou pédagogie conductive) est une méthode d'éducation spécialisée pour infirmes moteurs cérébraux (IMC), créée par le médecin pédiatre hongrois András Pető dans les années 1940.
-C'est une approche globale, qui part d'un pari positif sur les capacités des IMC, où par une série de jeux et d'exercice, la personne handicapée est amenée à développer ses acquisitions par l'accompagnement d'un « conducteur »[1], dont la particularité est d'être éducateur polyvalent, formé en quatre ans en psychologie, kinésithérapie, orthophonie, instruction publique, pour concevoir des exercices globaux, par opposition à des prises en charge traditionnelles plus parcellisées.
-Élaborée à Budapest dans ce qui est aujourd'hui le plus grand centre mondial pour enfants IMC[2], elle s'est répandue dans le monde à l'ouverture des pays de l'Est[3],[4].
-Depuis, elle s'est largement implantée au Royaume-Uni, en Israël[5], en Allemagne et aux États-Unis. Elle est aujourd'hui pratiquée dans près de 200 structures à travers le monde.
-Des centres pilotes existent dans l'univers francophone en Belgique[6], notamment avec le centre La Famille [7]à Bruxelles. 
+C'est une approche globale, qui part d'un pari positif sur les capacités des IMC, où par une série de jeux et d'exercice, la personne handicapée est amenée à développer ses acquisitions par l'accompagnement d'un « conducteur », dont la particularité est d'être éducateur polyvalent, formé en quatre ans en psychologie, kinésithérapie, orthophonie, instruction publique, pour concevoir des exercices globaux, par opposition à des prises en charge traditionnelles plus parcellisées.
+Élaborée à Budapest dans ce qui est aujourd'hui le plus grand centre mondial pour enfants IMC, elle s'est répandue dans le monde à l'ouverture des pays de l'Est,.
+Depuis, elle s'est largement implantée au Royaume-Uni, en Israël, en Allemagne et aux États-Unis. Elle est aujourd'hui pratiquée dans près de 200 structures à travers le monde.
+Des centres pilotes existent dans l'univers francophone en Belgique, notamment avec le centre La Famille à Bruxelles. 
 À l’initiative de parents d’enfants touchés par le handicap moteur, plusieurs centres permanents et temporaires d’éducation conductrice ont été créés en France :
 - 6 CENTRES PERMANENTS OUVERTS A L'ANNÉE :  
-En 2008 : L'association EHM[8], Enfance Handicap Moteur de Pouilly-sur-Loire (Nièvre), active depuis 12 ans,
-En 2012, L'association Honorine Lève-Toi/Centre d'éducation conductive de Bayeux (Calvados)[9] qui "s'occupe d'enfants polyhandicapés[10]".
-En 2015, Le CEC du Gard à Clarensac (Gard)[11],[12], actif depuis 5 ans,
-En 2015, La Maison Escargot à Plédéliac (Côtes-d'Armor)[13], actif depuis 5 ans,
-En 2016, Le CEC du Grand Est[14] à Bellemagny (Haut-Rhin) et le CEC du Tarn/La Maison des Petits Pas à Labruguière (Tarn)[15]
-En 2020, une nouvelle association essaie d'ouvrir une école[16] à Paris,
+En 2008 : L'association EHM, Enfance Handicap Moteur de Pouilly-sur-Loire (Nièvre), active depuis 12 ans,
+En 2012, L'association Honorine Lève-Toi/Centre d'éducation conductive de Bayeux (Calvados) qui "s'occupe d'enfants polyhandicapés".
+En 2015, Le CEC du Gard à Clarensac (Gard) actif depuis 5 ans,
+En 2015, La Maison Escargot à Plédéliac (Côtes-d'Armor), actif depuis 5 ans,
+En 2016, Le CEC du Grand Est à Bellemagny (Haut-Rhin) et le CEC du Tarn/La Maison des Petits Pas à Labruguière (Tarn)
+En 2020, une nouvelle association essaie d'ouvrir une école à Paris,
 En 2021, l'association CEC Nouvelle Aquitaine ouvre ses portes à Marcheprime (Gironde).
 - 2 Centres temporaires:
-l'AFPEC de Laval (Mayenne) et l'association SEIMC de Maucomble (Seine-Maritime)[17]
+l'AFPEC de Laval (Mayenne) et l'association SEIMC de Maucomble (Seine-Maritime)
 </t>
         </is>
       </c>
